--- a/excel/collective/zestawy_dla_uczniow/zestaw_026.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_026.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
   <si>
     <t>ZESTAW ZADAŃ NR 26 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Anna Maciejewska</t>
-  </si>
-  <si>
-    <t>Amelia Malinowska</t>
-  </si>
-  <si>
-    <t>Natalia Jaworska</t>
-  </si>
-  <si>
-    <t>Kacper Woźniak</t>
-  </si>
-  <si>
-    <t>Antoni Kozłowski</t>
+    <t>Mikołaj Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Natalia Król</t>
+  </si>
+  <si>
+    <t>Oliwia Lis</t>
+  </si>
+  <si>
+    <t>Adam Zieliński</t>
+  </si>
+  <si>
+    <t>Jan Lewandowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,6 +160,18 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>0,70</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,80</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
@@ -169,31 +181,19 @@
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,70</t>
+    <t>4,30</t>
   </si>
   <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>12,80</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>3,20</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>0,50</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>24,70</t>
+    <t>14,00</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>4,50</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>11,02</t>
+    <t>11,62</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>19,33</t>
+    <t>28,95</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>15,13</t>
+    <t>4,89</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>30,15</t>
+    <t>24,33</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>23,91</t>
+    <t>13,12</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>14,82</t>
-  </si>
-  <si>
-    <t>17,16</t>
-  </si>
-  <si>
-    <t>16,96</t>
-  </si>
-  <si>
-    <t>15,30</t>
-  </si>
-  <si>
-    <t>14,84</t>
+    <t>12,52</t>
+  </si>
+  <si>
+    <t>26,76</t>
+  </si>
+  <si>
+    <t>24,58</t>
+  </si>
+  <si>
+    <t>2,18</t>
+  </si>
+  <si>
+    <t>12,65</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>4,81</t>
-  </si>
-  <si>
-    <t>25,38</t>
-  </si>
-  <si>
-    <t>13,82</t>
-  </si>
-  <si>
-    <t>16,07</t>
-  </si>
-  <si>
-    <t>15,24</t>
+    <t>4,27</t>
+  </si>
+  <si>
+    <t>29,02</t>
+  </si>
+  <si>
+    <t>2,72</t>
+  </si>
+  <si>
+    <t>14,29</t>
+  </si>
+  <si>
+    <t>10,40</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +340,46 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Maja</t>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
   </si>
   <si>
     <t>Król</t>
   </si>
   <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
+  </si>
+  <si>
     <t>Antoni</t>
   </si>
   <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,130 +415,166 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Mikołaj Nowak</t>
-  </si>
-  <si>
-    <t>22.06.1994</t>
-  </si>
-  <si>
-    <t>5 321,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>02.09.2001</t>
-  </si>
-  <si>
-    <t>13 254,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Borkowska</t>
-  </si>
-  <si>
-    <t>22.04.1998</t>
-  </si>
-  <si>
-    <t>9 112,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Szymański</t>
-  </si>
-  <si>
-    <t>05.08.1980</t>
-  </si>
-  <si>
-    <t>5 989,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kozłowski</t>
-  </si>
-  <si>
-    <t>23.02.1979</t>
-  </si>
-  <si>
-    <t>12 830,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Piotrowski</t>
-  </si>
-  <si>
-    <t>22.09.1978</t>
-  </si>
-  <si>
-    <t>11 789,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalczyk</t>
-  </si>
-  <si>
-    <t>19.04.2005</t>
-  </si>
-  <si>
-    <t>10 888,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kwiatkowski</t>
-  </si>
-  <si>
-    <t>04.02.2000</t>
-  </si>
-  <si>
-    <t>11 569,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Zieliński</t>
-  </si>
-  <si>
-    <t>10.05.1998</t>
-  </si>
-  <si>
-    <t>14 395,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Bednarska</t>
-  </si>
-  <si>
-    <t>05.05.1978</t>
-  </si>
-  <si>
-    <t>12 455,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Woźniak</t>
-  </si>
-  <si>
-    <t>08.08.1979</t>
-  </si>
-  <si>
-    <t>9 624,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>01.12.1985</t>
-  </si>
-  <si>
-    <t>11 722,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Szymański</t>
-  </si>
-  <si>
-    <t>01.08.2003</t>
-  </si>
-  <si>
-    <t>13 294,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalczyk</t>
-  </si>
-  <si>
-    <t>16.01.1993</t>
-  </si>
-  <si>
-    <t>3 365,00 zł</t>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>14.02.1995</t>
+  </si>
+  <si>
+    <t>11 744,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>17.06.1977</t>
+  </si>
+  <si>
+    <t>7 137,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Kaczmarek</t>
+  </si>
+  <si>
+    <t>03.10.1984</t>
+  </si>
+  <si>
+    <t>5 091,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Szymański</t>
+  </si>
+  <si>
+    <t>13.10.1998</t>
+  </si>
+  <si>
+    <t>14 136,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>27.08.1990</t>
+  </si>
+  <si>
+    <t>6 034,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Czarnecka</t>
+  </si>
+  <si>
+    <t>18.04.1978</t>
+  </si>
+  <si>
+    <t>11 421,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
+  </si>
+  <si>
+    <t>05.03.1983</t>
+  </si>
+  <si>
+    <t>9 148,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>07.05.2002</t>
+  </si>
+  <si>
+    <t>12 211,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Wójcik</t>
+  </si>
+  <si>
+    <t>14.07.1997</t>
+  </si>
+  <si>
+    <t>5 435,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Rogalska</t>
+  </si>
+  <si>
+    <t>04.07.1980</t>
+  </si>
+  <si>
+    <t>13 101,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Bednarska</t>
+  </si>
+  <si>
+    <t>20.08.1998</t>
+  </si>
+  <si>
+    <t>6 908,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Sadowska</t>
+  </si>
+  <si>
+    <t>23.10.2005</t>
+  </si>
+  <si>
+    <t>4 465,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Bednarska</t>
+  </si>
+  <si>
+    <t>04.07.2000</t>
+  </si>
+  <si>
+    <t>7 599,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Wójcik</t>
+  </si>
+  <si>
+    <t>03.04.1979</t>
+  </si>
+  <si>
+    <t>7 261,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Piekarska</t>
+  </si>
+  <si>
+    <t>13.06.1993</t>
+  </si>
+  <si>
+    <t>4 466,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Rogalska</t>
+  </si>
+  <si>
+    <t>07.09.1982</t>
+  </si>
+  <si>
+    <t>7 539,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Szymański</t>
+  </si>
+  <si>
+    <t>27.06.1988</t>
+  </si>
+  <si>
+    <t>8 245,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Mazur</t>
+  </si>
+  <si>
+    <t>14.11.1992</t>
+  </si>
+  <si>
+    <t>4 959,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -598,322 +646,328 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>898,00 zł</t>
+  </si>
+  <si>
+    <t>1 140,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
+    <t>1 352,00 zł</t>
+  </si>
+  <si>
+    <t>1 609,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 403,00 zł</t>
+  </si>
+  <si>
+    <t>1 740,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 092,00 zł</t>
+  </si>
+  <si>
+    <t>1 289,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 333,00 zł</t>
+  </si>
+  <si>
+    <t>1 493,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>1 108,00 zł</t>
+  </si>
+  <si>
+    <t>1 440,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 005,00 zł</t>
+  </si>
+  <si>
+    <t>1 357,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>926,00 zł</t>
+  </si>
+  <si>
+    <t>1 167,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 070,00 zł</t>
+  </si>
+  <si>
+    <t>1 477,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>688,00 zł</t>
+  </si>
+  <si>
+    <t>943,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 084,00 zł</t>
+  </si>
+  <si>
+    <t>1 442,00 zł</t>
+  </si>
+  <si>
+    <t>848,00 zł</t>
+  </si>
+  <si>
+    <t>1 145,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>772,00 zł</t>
+  </si>
+  <si>
+    <t>1 027,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 086,00 zł</t>
+  </si>
+  <si>
+    <t>1 216,00 zł</t>
+  </si>
+  <si>
+    <t>1 247,00 zł</t>
+  </si>
+  <si>
+    <t>1 509,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 075,00 zł</t>
+  </si>
+  <si>
+    <t>1 258,00 zł</t>
+  </si>
+  <si>
+    <t>882,00 zł</t>
+  </si>
+  <si>
+    <t>1 023,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 207,00 zł</t>
+  </si>
+  <si>
+    <t>1 400,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 299,00 zł</t>
+  </si>
+  <si>
     <t>1 455,00 zł</t>
   </si>
   <si>
-    <t>1 935,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
-    <t>1 285,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>577,00 zł</t>
-  </si>
-  <si>
-    <t>658,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>861,00 zł</t>
-  </si>
-  <si>
-    <t>1 180,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
-    <t>1 638,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 342,00 zł</t>
+  </si>
+  <si>
+    <t>1 651,00 zł</t>
+  </si>
+  <si>
+    <t>1 035,00 zł</t>
+  </si>
+  <si>
+    <t>1 418,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>863,00 zł</t>
+  </si>
+  <si>
+    <t>1 122,00 zł</t>
   </si>
   <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 239,00 zł</t>
-  </si>
-  <si>
-    <t>1 685,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 089,00 zł</t>
-  </si>
-  <si>
-    <t>1 525,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>827,00 zł</t>
-  </si>
-  <si>
-    <t>1 125,00 zł</t>
-  </si>
-  <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
-    <t>1 763,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
-    <t>1 513,00 zł</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 231,00 zł</t>
-  </si>
-  <si>
-    <t>1 576,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 035,00 zł</t>
-  </si>
-  <si>
-    <t>1 397,00 zł</t>
-  </si>
-  <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
-    <t>1 571,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>613,00 zł</t>
-  </si>
-  <si>
-    <t>785,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>1 720,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>1 490,00 zł</t>
-  </si>
-  <si>
-    <t>1 728,00 zł</t>
-  </si>
-  <si>
-    <t>1 471,00 zł</t>
-  </si>
-  <si>
-    <t>2 030,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 154,00 zł</t>
-  </si>
-  <si>
-    <t>1 604,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>1 599,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 499,00 zł</t>
-  </si>
-  <si>
-    <t>1 799,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 369,00 zł</t>
-  </si>
-  <si>
-    <t>1 670,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>1 066,00 zł</t>
-  </si>
-  <si>
-    <t>1 311,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 017,00 zł</t>
-  </si>
-  <si>
-    <t>1 403,00 zł</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 048,00 zł</t>
-  </si>
-  <si>
-    <t>1 289,00 zł</t>
-  </si>
-  <si>
-    <t>1 081,00 zł</t>
-  </si>
-  <si>
-    <t>1 232,00 zł</t>
+    <t>944,00 zł</t>
+  </si>
+  <si>
+    <t>1 114,00 zł</t>
+  </si>
+  <si>
+    <t>1 001,00 zł</t>
+  </si>
+  <si>
+    <t>1 101,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 334,00 zł</t>
+  </si>
+  <si>
+    <t>1 507,00 zł</t>
+  </si>
+  <si>
+    <t>745,00 zł</t>
+  </si>
+  <si>
+    <t>976,00 zł</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 749,00 zł</t>
-  </si>
-  <si>
-    <t>1 005,00 zł</t>
-  </si>
-  <si>
-    <t>1 407,00 zł</t>
-  </si>
-  <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>1 637,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>1 153,00 zł</t>
-  </si>
-  <si>
-    <t>1 603,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>1 651,00 zł</t>
+    <t>786,00 zł</t>
+  </si>
+  <si>
+    <t>1 045,00 zł</t>
+  </si>
+  <si>
+    <t>1 480,00 zł</t>
+  </si>
+  <si>
+    <t>1 776,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1470,19 +1524,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
         <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1491,19 +1545,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1515,16 +1569,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
       <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
         <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1533,19 +1587,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1554,16 +1608,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1575,19 +1629,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1596,19 +1650,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1617,19 +1671,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1638,10 +1692,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -1650,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1659,19 +1713,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1680,19 +1734,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1701,19 +1755,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
         <v>4</v>
       </c>
-      <c r="E28" s="3">
-        <v>6</v>
-      </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1835,7 +1889,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1850,7 +1904,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1865,7 +1919,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1880,7 +1934,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1895,7 +1949,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1910,7 +1964,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2027,7 +2081,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2039,7 +2093,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2051,7 +2105,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2063,7 +2117,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2075,7 +2129,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2123,7 +2177,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2135,7 +2189,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2147,7 +2201,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2159,7 +2213,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2171,7 +2225,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2219,7 +2273,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2231,7 +2285,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2243,7 +2297,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2255,7 +2309,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2267,7 +2321,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2301,10 +2355,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2410,25 +2464,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2442,25 +2496,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2474,25 +2528,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2506,25 +2560,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
         <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6</v>
       </c>
       <c r="H15" s="3">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2538,22 +2592,22 @@
         <v>115</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
         <v>6</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3</v>
       </c>
       <c r="J16" s="3">
         <v>5</v>
@@ -2562,42 +2616,106 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2610,10 +2728,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2625,7 +2743,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2635,221 +2753,265 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>169</v>
+      <c r="A27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>173</v>
+      <c r="A28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2867,10 +3029,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2886,7 +3048,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2896,75 +3058,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2972,22 +3134,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2995,22 +3157,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3018,22 +3180,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3041,22 +3203,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3064,22 +3226,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3087,22 +3249,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>220</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3110,22 +3272,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3133,22 +3295,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3156,22 +3318,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3179,22 +3341,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3202,22 +3364,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3225,22 +3387,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3248,22 +3410,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3271,22 +3433,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3294,22 +3456,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3317,22 +3479,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3340,22 +3502,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3363,22 +3525,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3386,22 +3548,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3409,22 +3571,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3432,22 +3594,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3455,22 +3617,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3478,22 +3640,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3501,22 +3663,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3524,22 +3686,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3547,22 +3709,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3570,22 +3732,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3593,113 +3755,67 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>292</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>169</v>
+      <c r="A48" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>302</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_026.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_026.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>ZESTAW ZADAŃ NR 26 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 26 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>0,70</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,80</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,30</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,00</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,50</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>11,62</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>28,95</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>4,89</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>24,33</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>13,12</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>12,52</t>
-  </si>
-  <si>
-    <t>26,76</t>
-  </si>
-  <si>
-    <t>24,58</t>
-  </si>
-  <si>
-    <t>2,18</t>
-  </si>
-  <si>
-    <t>12,65</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>4,27</t>
-  </si>
-  <si>
-    <t>29,02</t>
-  </si>
-  <si>
-    <t>2,72</t>
-  </si>
-  <si>
-    <t>14,29</t>
-  </si>
-  <si>
-    <t>10,40</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,162 +343,108 @@
     <t>14.02.1995</t>
   </si>
   <si>
-    <t>11 744,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Król</t>
   </si>
   <si>
     <t>17.06.1977</t>
   </si>
   <si>
-    <t>7 137,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kaczmarek</t>
   </si>
   <si>
     <t>03.10.1984</t>
   </si>
   <si>
-    <t>5 091,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Szymański</t>
   </si>
   <si>
     <t>13.10.1998</t>
   </si>
   <si>
-    <t>14 136,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Bednarska</t>
   </si>
   <si>
     <t>27.08.1990</t>
   </si>
   <si>
-    <t>6 034,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Czarnecka</t>
   </si>
   <si>
     <t>18.04.1978</t>
   </si>
   <si>
-    <t>11 421,00 zł</t>
-  </si>
-  <si>
     <t>Maja Malinowska</t>
   </si>
   <si>
     <t>05.03.1983</t>
   </si>
   <si>
-    <t>9 148,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Grabowski</t>
   </si>
   <si>
     <t>07.05.2002</t>
   </si>
   <si>
-    <t>12 211,00 zł</t>
-  </si>
-  <si>
     <t>Anna Wójcik</t>
   </si>
   <si>
     <t>14.07.1997</t>
   </si>
   <si>
-    <t>5 435,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Rogalska</t>
   </si>
   <si>
     <t>04.07.1980</t>
   </si>
   <si>
-    <t>13 101,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Bednarska</t>
   </si>
   <si>
     <t>20.08.1998</t>
   </si>
   <si>
-    <t>6 908,00 zł</t>
-  </si>
-  <si>
     <t>Maja Sadowska</t>
   </si>
   <si>
     <t>23.10.2005</t>
   </si>
   <si>
-    <t>4 465,00 zł</t>
-  </si>
-  <si>
     <t>Anna Bednarska</t>
   </si>
   <si>
     <t>04.07.2000</t>
   </si>
   <si>
-    <t>7 599,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Wójcik</t>
   </si>
   <si>
     <t>03.04.1979</t>
   </si>
   <si>
-    <t>7 261,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Piekarska</t>
   </si>
   <si>
     <t>13.06.1993</t>
   </si>
   <si>
-    <t>4 466,00 zł</t>
-  </si>
-  <si>
     <t>Anna Rogalska</t>
   </si>
   <si>
     <t>07.09.1982</t>
   </si>
   <si>
-    <t>7 539,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Szymański</t>
   </si>
   <si>
     <t>27.06.1988</t>
   </si>
   <si>
-    <t>8 245,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Mazur</t>
   </si>
   <si>
     <t>14.11.1992</t>
   </si>
   <si>
-    <t>4 959,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -589,9 +457,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -652,12 +517,6 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>898,00 zł</t>
-  </si>
-  <si>
-    <t>1 140,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -670,12 +529,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 352,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -685,12 +538,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 403,00 zł</t>
-  </si>
-  <si>
-    <t>1 740,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -703,12 +550,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 092,00 zł</t>
-  </si>
-  <si>
-    <t>1 289,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -718,12 +559,6 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 333,00 zł</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -733,12 +568,6 @@
     <t>maj</t>
   </si>
   <si>
-    <t>1 108,00 zł</t>
-  </si>
-  <si>
-    <t>1 440,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -748,12 +577,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 005,00 zł</t>
-  </si>
-  <si>
-    <t>1 357,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
@@ -763,12 +586,6 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>1 167,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -778,72 +595,30 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 070,00 zł</t>
-  </si>
-  <si>
-    <t>1 477,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>688,00 zł</t>
-  </si>
-  <si>
-    <t>943,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 084,00 zł</t>
-  </si>
-  <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
-    <t>848,00 zł</t>
-  </si>
-  <si>
-    <t>1 145,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>772,00 zł</t>
-  </si>
-  <si>
-    <t>1 027,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 086,00 zł</t>
-  </si>
-  <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 247,00 zł</t>
-  </si>
-  <si>
-    <t>1 509,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -853,39 +628,15 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 075,00 zł</t>
-  </si>
-  <si>
-    <t>1 258,00 zł</t>
-  </si>
-  <si>
-    <t>882,00 zł</t>
-  </si>
-  <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 207,00 zł</t>
-  </si>
-  <si>
-    <t>1 400,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 299,00 zł</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -895,79 +646,25 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 342,00 zł</t>
-  </si>
-  <si>
-    <t>1 651,00 zł</t>
-  </si>
-  <si>
-    <t>1 035,00 zł</t>
-  </si>
-  <si>
-    <t>1 418,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>863,00 zł</t>
-  </si>
-  <si>
-    <t>1 122,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>944,00 zł</t>
-  </si>
-  <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 001,00 zł</t>
-  </si>
-  <si>
-    <t>1 101,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 334,00 zł</t>
-  </si>
-  <si>
-    <t>1 507,00 zł</t>
-  </si>
-  <si>
-    <t>745,00 zł</t>
-  </si>
-  <si>
-    <t>976,00 zł</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>786,00 zł</t>
-  </si>
-  <si>
-    <t>1 045,00 zł</t>
-  </si>
-  <si>
-    <t>1 480,00 zł</t>
-  </si>
-  <si>
-    <t>1 776,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -989,7 +686,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1046,14 +745,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1064,8 +763,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1096,30 +795,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,7 +1122,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1497,25 +1197,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1538,7 +1238,7 @@
       <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1559,7 +1259,7 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1580,7 +1280,7 @@
       <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1601,7 +1301,7 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1622,7 +1322,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1643,7 +1343,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1664,7 +1364,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1685,7 +1385,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1706,7 +1406,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1727,7 +1427,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1748,7 +1448,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1769,27 +1469,17 @@
       <c r="F28" s="3">
         <v>5</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1823,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1843,7 +1533,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1853,29 +1543,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1883,99 +1573,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.7</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.8</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.2</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.3</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14</v>
       </c>
       <c r="D17" s="3">
         <v>10</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4.5</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2008,7 +1698,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2033,113 +1723,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>11.62</v>
       </c>
       <c r="C15" s="3">
         <v>20</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>28.95</v>
       </c>
       <c r="C16" s="3">
         <v>36</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4.89</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>24.33</v>
       </c>
       <c r="C18" s="3">
         <v>25</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>13.12</v>
       </c>
       <c r="C19" s="3">
         <v>28</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2148,94 +1838,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>12.52</v>
       </c>
       <c r="C24" s="3">
         <v>34</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>26.76</v>
       </c>
       <c r="C25" s="3">
         <v>41</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>24.58</v>
       </c>
       <c r="C26" s="3">
         <v>37</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2.18</v>
       </c>
       <c r="C27" s="3">
         <v>29</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>12.65</v>
       </c>
       <c r="C28" s="3">
         <v>21</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2244,98 +1934,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4.27</v>
       </c>
       <c r="C33" s="3">
         <v>9</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>29.02</v>
       </c>
       <c r="C34" s="3">
         <v>25</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.72</v>
       </c>
       <c r="C35" s="3">
         <v>34</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>14.29</v>
       </c>
       <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>10.4</v>
       </c>
       <c r="C37" s="3">
         <v>18</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2358,7 +2048,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2378,90 +2068,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2484,16 +2174,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2516,16 +2206,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2548,16 +2238,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2580,16 +2270,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2612,16 +2302,16 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2644,16 +2334,16 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
@@ -2676,40 +2366,40 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2742,277 +2432,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11744</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5091</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14136</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6034</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11421</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9148</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12211</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5435</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6908</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4465</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7599</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7261</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4466</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="7">
+        <v>7539</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>181</v>
+        <v>138</v>
+      </c>
+      <c r="C27" s="7">
+        <v>8245</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>184</v>
+        <v>140</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4959</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>185</v>
+      <c r="A31" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B34" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3047,86 +2731,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>190</v>
+      <c r="A1" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>207</v>
+      <c r="A15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3134,22 +2818,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="D16" s="7">
+        <v>898</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1140</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3157,22 +2841,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1352</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1609</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3180,22 +2864,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1403</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1740</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3203,22 +2887,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1092</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1289</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3226,22 +2910,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>233</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1333</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1493</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3249,22 +2933,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>238</v>
+        <v>171</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1108</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1440</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3272,22 +2956,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>243</v>
+        <v>184</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1005</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1357</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3295,22 +2979,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
+      </c>
+      <c r="D23" s="7">
+        <v>926</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1167</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3318,22 +3002,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>253</v>
+        <v>190</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1070</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1477</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3341,22 +3025,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>257</v>
+        <v>192</v>
+      </c>
+      <c r="D25" s="7">
+        <v>688</v>
+      </c>
+      <c r="E25" s="7">
+        <v>943</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3364,22 +3048,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>261</v>
+        <v>194</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1084</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1442</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3387,22 +3071,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>263</v>
+        <v>164</v>
+      </c>
+      <c r="D27" s="7">
+        <v>848</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1145</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3410,22 +3094,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>267</v>
+        <v>196</v>
+      </c>
+      <c r="D28" s="7">
+        <v>772</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1027</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3433,22 +3117,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>271</v>
+        <v>198</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1086</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1216</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3456,22 +3140,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>273</v>
+        <v>184</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1247</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1509</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3479,22 +3163,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>278</v>
+        <v>201</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1075</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1258</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3502,22 +3186,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>280</v>
+        <v>196</v>
+      </c>
+      <c r="D32" s="7">
+        <v>882</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1023</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3525,22 +3209,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>283</v>
+        <v>202</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1207</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1400</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>284</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3548,22 +3232,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>287</v>
+        <v>204</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1455</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3571,22 +3255,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>292</v>
+        <v>207</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1342</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1651</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3594,22 +3278,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1035</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1418</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3617,22 +3301,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>298</v>
+        <v>184</v>
+      </c>
+      <c r="D37" s="7">
+        <v>863</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1122</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3640,22 +3324,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>302</v>
+        <v>211</v>
+      </c>
+      <c r="D38" s="7">
+        <v>944</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1114</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3663,22 +3347,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>304</v>
+        <v>202</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1001</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1101</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3686,22 +3370,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>308</v>
+        <v>213</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1334</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1507</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3709,22 +3393,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>310</v>
+        <v>211</v>
+      </c>
+      <c r="D41" s="7">
+        <v>745</v>
+      </c>
+      <c r="E41" s="7">
+        <v>976</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3732,22 +3416,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="7">
+        <v>786</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1045</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="G42" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3755,68 +3439,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>315</v>
+        <v>194</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1480</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1776</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>185</v>
+      <c r="A46" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>317</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>318</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>320</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_026.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_026.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>ZESTAW ZADAŃ NR 26 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Mikołaj Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Natalia Król</t>
-  </si>
-  <si>
-    <t>Oliwia Lis</t>
-  </si>
-  <si>
-    <t>Adam Zieliński</t>
-  </si>
-  <si>
-    <t>Jan Lewandowski</t>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>Kacper Piotrowski</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Kozłowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 26 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>Linijka 30 cm</t>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
   </si>
   <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
+    <t>Blok rysunkowy A4</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,49 +266,37 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
   </si>
   <si>
     <t>Aleksander</t>
   </si>
   <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Mazur</t>
+    <t>Nowak</t>
   </si>
   <si>
     <t>Oliwia</t>
   </si>
   <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -337,127 +332,103 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Szymon Szymański</t>
-  </si>
-  <si>
-    <t>14.02.1995</t>
-  </si>
-  <si>
-    <t>Amelia Król</t>
-  </si>
-  <si>
-    <t>17.06.1977</t>
-  </si>
-  <si>
-    <t>Kacper Kaczmarek</t>
-  </si>
-  <si>
-    <t>03.10.1984</t>
-  </si>
-  <si>
-    <t>Mikołaj Szymański</t>
-  </si>
-  <si>
-    <t>13.10.1998</t>
-  </si>
-  <si>
-    <t>Amelia Bednarska</t>
-  </si>
-  <si>
-    <t>27.08.1990</t>
-  </si>
-  <si>
-    <t>Hanna Czarnecka</t>
-  </si>
-  <si>
-    <t>18.04.1978</t>
-  </si>
-  <si>
-    <t>Maja Malinowska</t>
-  </si>
-  <si>
-    <t>05.03.1983</t>
-  </si>
-  <si>
-    <t>Jakub Grabowski</t>
-  </si>
-  <si>
-    <t>07.05.2002</t>
-  </si>
-  <si>
-    <t>Anna Wójcik</t>
-  </si>
-  <si>
-    <t>14.07.1997</t>
-  </si>
-  <si>
-    <t>Natalia Rogalska</t>
-  </si>
-  <si>
-    <t>04.07.1980</t>
-  </si>
-  <si>
-    <t>Hanna Bednarska</t>
-  </si>
-  <si>
-    <t>20.08.1998</t>
+    <t>Aleksander Grabowski</t>
+  </si>
+  <si>
+    <t>Amelia Malinowska</t>
+  </si>
+  <si>
+    <t>Zuzanna Jaworska</t>
+  </si>
+  <si>
+    <t>Lena Olszewska</t>
+  </si>
+  <si>
+    <t>Amelia Wilk</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>Lena Urbaniak</t>
+  </si>
+  <si>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
   </si>
   <si>
     <t>Maja Sadowska</t>
   </si>
   <si>
-    <t>23.10.2005</t>
-  </si>
-  <si>
-    <t>Anna Bednarska</t>
-  </si>
-  <si>
-    <t>04.07.2000</t>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Aleksander Szymański</t>
+  </si>
+  <si>
+    <t>Natalia Jaworska</t>
+  </si>
+  <si>
+    <t>Zuzanna Malinowska</t>
+  </si>
+  <si>
+    <t>Zuzanna Piekarska</t>
+  </si>
+  <si>
+    <t>Adam Kamiński</t>
+  </si>
+  <si>
+    <t>Oliwia Sadowska</t>
+  </si>
+  <si>
+    <t>Adam Woźniak</t>
+  </si>
+  <si>
+    <t>Szymon Krawczyk</t>
+  </si>
+  <si>
+    <t>Natalia Czarnecka</t>
+  </si>
+  <si>
+    <t>Filip Szymański</t>
   </si>
   <si>
     <t>Zuzanna Wójcik</t>
   </si>
   <si>
-    <t>03.04.1979</t>
-  </si>
-  <si>
-    <t>Emilia Piekarska</t>
-  </si>
-  <si>
-    <t>13.06.1993</t>
-  </si>
-  <si>
-    <t>Anna Rogalska</t>
-  </si>
-  <si>
-    <t>07.09.1982</t>
-  </si>
-  <si>
-    <t>Jakub Szymański</t>
-  </si>
-  <si>
-    <t>27.06.1988</t>
-  </si>
-  <si>
-    <t>Wojciech Mazur</t>
-  </si>
-  <si>
-    <t>14.11.1992</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -511,160 +482,157 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
     <t>kwiecień</t>
   </si>
   <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
+    <t>Router Wi-Fi 6</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
+    <t>świętokrzyskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -736,7 +704,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,12 +727,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -795,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -806,13 +768,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1119,7 +1080,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1224,19 +1185,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
       <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1245,16 +1206,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
@@ -1266,19 +1227,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
         <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1287,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
@@ -1308,19 +1269,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
       </c>
       <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1335,13 +1296,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1350,19 +1311,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1371,19 +1332,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
         <v>6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1395,16 +1356,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
         <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1413,19 +1374,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1434,19 +1395,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1458,16 +1419,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1480,6 +1441,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1513,7 +1480,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1533,7 +1500,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1543,29 +1510,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1573,99 +1540,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.7</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5.8</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.8</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.2</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.3</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.3</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4.5</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5.2</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1682,10 +1649,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1698,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1723,27 +1690,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1751,85 +1718,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>11.62</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>22.63</v>
       </c>
       <c r="C15" s="3">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>28.95</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9.16</v>
       </c>
       <c r="C16" s="3">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>4.89</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>14.6</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>24.33</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>17.29</v>
       </c>
       <c r="C18" s="3">
-        <v>25</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>13.12</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2.43</v>
       </c>
       <c r="C19" s="3">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1838,8 +1805,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1847,85 +1814,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>12.52</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1.1</v>
       </c>
       <c r="C24" s="3">
-        <v>34</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>26.76</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>18.86</v>
       </c>
       <c r="C25" s="3">
-        <v>41</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>24.58</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3.98</v>
       </c>
       <c r="C26" s="3">
-        <v>37</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>2.18</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>8.58</v>
       </c>
       <c r="C27" s="3">
-        <v>29</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>12.65</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>26.78</v>
       </c>
       <c r="C28" s="3">
-        <v>21</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1934,8 +1901,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1943,89 +1910,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>4.27</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>13.039999999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>29.02</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>24.38</v>
       </c>
       <c r="C34" s="3">
-        <v>25</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>2.72</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>15.96</v>
       </c>
       <c r="C35" s="3">
-        <v>34</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>14.29</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>26.49</v>
       </c>
       <c r="C36" s="3">
-        <v>35</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>10.4</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>27.030000000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>18</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2045,10 +2020,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2068,111 +2043,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2180,31 +2155,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2212,31 +2187,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2244,16 +2219,16 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>4</v>
@@ -2262,13 +2237,13 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2276,136 +2251,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="J16" s="3">
         <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2418,10 +2329,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2432,271 +2343,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>11744</v>
+        <v>103</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8551</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>7137</v>
+        <v>104</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9196</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5091</v>
+        <v>105</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C13" s="8">
+        <v>14734</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>14136</v>
+        <v>106</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4639</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6034</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4435</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11421</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13683</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9148</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3862</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12211</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5287</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5435</v>
+        <v>111</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8285</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>13101</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5491</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6908</v>
+        <v>107</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C21" s="8">
+        <v>11657</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>7599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>7261</v>
+        <v>113</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8424</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4466</v>
+      <c r="A25" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
-        <v>7539</v>
-      </c>
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="7">
-        <v>8245</v>
-      </c>
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="7">
-        <v>4959</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2713,10 +2558,194 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3">
+        <v>120</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="3">
+        <v>155</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="3">
+        <v>118</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3">
+        <v>191</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3">
+        <v>174</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3">
+        <v>147</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="3">
+        <v>104</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="3">
+        <v>175</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3">
+        <v>179</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="3">
+        <v>173</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="3">
+        <v>109</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="3">
+        <v>157</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="3">
+        <v>93</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2731,86 +2760,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>145</v>
+      <c r="A1" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2818,22 +2847,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="7">
-        <v>898</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1140</v>
+        <v>154</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1464</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1713</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2841,22 +2870,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1352</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1609</v>
+        <v>158</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1153</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1349</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2864,22 +2893,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1403</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1740</v>
+        <v>158</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1085</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1215</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2887,22 +2916,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1092</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1289</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="8">
+        <v>879</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1002</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2910,22 +2939,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1333</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1493</v>
+        <v>167</v>
+      </c>
+      <c r="D20" s="8">
+        <v>556</v>
+      </c>
+      <c r="E20" s="8">
+        <v>767</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2933,22 +2962,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="8">
+        <v>953</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1067</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1108</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1440</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2956,22 +2985,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1005</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1357</v>
+        <v>173</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1159</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1495</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2979,22 +3008,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="7">
-        <v>926</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1167</v>
+        <v>169</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1239</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1685</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3002,22 +3031,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1363</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1717</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1070</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1477</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3025,22 +3054,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="8">
+        <v>733</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1019</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="7">
-        <v>688</v>
-      </c>
-      <c r="E25" s="7">
-        <v>943</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3048,22 +3077,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1084</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1442</v>
+        <v>158</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1209</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1330</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3071,22 +3100,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="7">
-        <v>848</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1145</v>
+        <v>183</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1656</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3094,22 +3123,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="7">
-        <v>772</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1027</v>
+        <v>185</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1355</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1707</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3117,22 +3146,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1086</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1216</v>
+        <v>187</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1316</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1803</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3140,22 +3169,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1247</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1509</v>
+        <v>187</v>
+      </c>
+      <c r="D30" s="8">
+        <v>949</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1224</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3163,22 +3192,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1075</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1258</v>
+        <v>158</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1326</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1684</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3186,22 +3215,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="7">
-        <v>882</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1023</v>
+        <v>190</v>
+      </c>
+      <c r="D32" s="8">
+        <v>600</v>
+      </c>
+      <c r="E32" s="8">
+        <v>672</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3209,22 +3238,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1207</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1400</v>
+        <v>180</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1209</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1620</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3232,22 +3261,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1455</v>
+        <v>193</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1216</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1459</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3255,22 +3284,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1342</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1651</v>
+        <v>196</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1254</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1668</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3278,22 +3307,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1035</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1418</v>
+        <v>187</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1488</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1786</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3301,22 +3330,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="7">
-        <v>863</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1122</v>
+        <v>154</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1126</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1464</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3324,22 +3353,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" s="7">
-        <v>944</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1114</v>
+        <v>199</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1176</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1411</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3347,22 +3376,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1001</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1101</v>
+        <v>200</v>
+      </c>
+      <c r="D39" s="8">
+        <v>774</v>
+      </c>
+      <c r="E39" s="8">
+        <v>913</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3370,22 +3399,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1334</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1507</v>
+        <v>201</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1152</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1452</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3393,22 +3422,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" s="7">
-        <v>745</v>
-      </c>
-      <c r="E41" s="7">
-        <v>976</v>
+        <v>202</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1111</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1389</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3416,22 +3445,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" s="7">
-        <v>786</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1045</v>
+        <v>185</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1321</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1717</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3439,58 +3468,81 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1480</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1776</v>
+        <v>173</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1405</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1911</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>141</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="8">
+        <v>910</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1247</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>215</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A47" s="16" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>218</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
